--- a/Adult Income/Performance_metrics/model_perf_metrics_merged_only_with_cfs_6331_9495__1_2 .xlsx
+++ b/Adult Income/Performance_metrics/model_perf_metrics_merged_only_with_cfs_6331_9495__1_2 .xlsx
@@ -502,10 +502,10 @@
         <v>31655</v>
       </c>
       <c r="G2" t="n">
-        <v>0.668639053254438</v>
+        <v>0.6667702345813268</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7696336890683589</v>
+        <v>0.7686973929582172</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -570,10 +570,10 @@
         <v>6331</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2552447552447552</v>
+        <v>0.1701680672268907</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5724077083220291</v>
+        <v>0.5458846921611689</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -604,10 +604,10 @@
         <v>6331</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2404233870967742</v>
+        <v>0.1669299631384939</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5676033435475073</v>
+        <v>0.5450236886971074</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -638,10 +638,10 @@
         <v>6331</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2574701195219123</v>
+        <v>0.1740498034076016</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5729759800323846</v>
+        <v>0.5470879323294314</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -672,10 +672,10 @@
         <v>6331</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2476764632002009</v>
+        <v>0.1519659936238044</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5700593288345275</v>
+        <v>0.5407014795797433</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>6331</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2528793189784677</v>
+        <v>0.1624901081508837</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5717404267106838</v>
+        <v>0.5436267266761288</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>12662</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2500000000000001</v>
+        <v>0.1692954784437434</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5706771054953779</v>
+        <v>0.5456952682577171</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>12662</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2435220125786164</v>
+        <v>0.1664033701948394</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5686128618630539</v>
+        <v>0.5448299668443913</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -808,10 +808,10 @@
         <v>12662</v>
       </c>
       <c r="G11" t="n">
-        <v>0.254</v>
+        <v>0.1669739267843034</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5720245625658614</v>
+        <v>0.5450731936476024</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>12662</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2466716905300176</v>
+        <v>0.1639430680021086</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5696718851290955</v>
+        <v>0.5440593773827916</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>12662</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2513770655983976</v>
+        <v>0.1660079051383399</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5711592611525358</v>
+        <v>0.5447847598431605</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>9495</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2644792443450162</v>
+        <v>0.1610773699498284</v>
       </c>
       <c r="H14" t="n">
-        <v>0.575535273169659</v>
+        <v>0.5432435809199611</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>9495</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2470440251572327</v>
+        <v>0.1659204635238346</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5699689148320658</v>
+        <v>0.5446857499421704</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -978,10 +978,10 @@
         <v>9495</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2535</v>
+        <v>0.1688584955286691</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5718308407131454</v>
+        <v>0.5456005563059911</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>9495</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2492462311557789</v>
+        <v>0.1665349143610013</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5706899993431706</v>
+        <v>0.5449784816958765</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1046,10 +1046,10 @@
         <v>9495</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2557442557442557</v>
+        <v>0.158284806776072</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5726014301747452</v>
+        <v>0.5425267943581206</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1080,10 +1080,10 @@
         <v>18990</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2629878200347999</v>
+        <v>0.1712634620436039</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5749541076115111</v>
+        <v>0.5463216408170959</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>18990</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2655745842640854</v>
+        <v>0.168421052631579</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5758194090248367</v>
+        <v>0.5455058443542653</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>18990</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2625559423172552</v>
+        <v>0.1727034120734908</v>
       </c>
       <c r="H21" t="n">
-        <v>0.5748098907092901</v>
+        <v>0.5467542915237587</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1182,10 +1182,10 @@
         <v>18990</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2584185582439511</v>
+        <v>0.1654373024236038</v>
       </c>
       <c r="H22" t="n">
-        <v>0.5735162365385659</v>
+        <v>0.5445415330399496</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1216,10 +1216,10 @@
         <v>18990</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2595914299950174</v>
+        <v>0.1591329632566746</v>
       </c>
       <c r="H23" t="n">
-        <v>0.5738498773442386</v>
+        <v>0.5426667133110773</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
